--- a/02_Proyecto/09. Programa Auditoria/Copia de PROGRAMA_AUDI_INTERNA.xlsx
+++ b/02_Proyecto/09. Programa Auditoria/Copia de PROGRAMA_AUDI_INTERNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Documents\GitHub\2563_G5_ACSW\02_Proyecto\09. Programa Auditoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97A355-8E1D-463B-B85C-E1BF369556FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25257A4F-5547-4129-A008-AE37F4651D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Fecha de Emisión:</t>
   </si>
@@ -292,9 +292,6 @@
 Respuestas a Preguntas</t>
   </si>
   <si>
-    <t>Desarrollo con el estándar ISO/IEC 29119-5:2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juntas del equipo auditor
 </t>
   </si>
@@ -390,9 +387,6 @@
   </si>
   <si>
     <t>ISO-ICE-IEEE-29119-5</t>
-  </si>
-  <si>
-    <t>6.2</t>
   </si>
   <si>
     <t>6.3</t>
@@ -535,7 +529,39 @@
     <t>Semana3</t>
   </si>
   <si>
-    <t>15  Proyecto</t>
+    <r>
+      <t xml:space="preserve">ISO-ICE-IEEE-29119-5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AAÑO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( PORQUE NO ES APLICABLE)</t>
+    </r>
+  </si>
+  <si>
+    <t>15  Informe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo con el estándar ISO/IEC 29119-5:2016 (auditoria Interna con el docuemnto) todas las tareas de auditoria interna </t>
   </si>
 </sst>
 </file>
@@ -548,7 +574,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
     <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -808,8 +834,21 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +889,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1304,7 +1349,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1496,9 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1611,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1596,118 +1748,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1723,6 +1765,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,8 +2033,8 @@
   </sheetPr>
   <dimension ref="A1:BA994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="42" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1998,15 +2048,15 @@
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="9" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="32.109375" style="92" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" style="92" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" style="92" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" style="92" customWidth="1"/>
-    <col min="19" max="19" width="25.5546875" style="92" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="92" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" style="92" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" style="92" customWidth="1"/>
-    <col min="23" max="23" width="7" style="92" customWidth="1"/>
+    <col min="15" max="15" width="32.109375" style="91" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="91" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" style="91" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="91" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" style="91" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="91" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" style="91" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="91" customWidth="1"/>
+    <col min="23" max="23" width="7" style="91" customWidth="1"/>
     <col min="24" max="30" width="7" customWidth="1"/>
     <col min="31" max="31" width="9.6640625" customWidth="1"/>
     <col min="32" max="32" width="60.33203125" customWidth="1"/>
@@ -2021,42 +2071,42 @@
     </row>
     <row r="2" spans="1:53" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="150" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="150" t="s">
-        <v>79</v>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="126" t="s">
+        <v>77</v>
       </c>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="115"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="107"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
@@ -2080,42 +2130,42 @@
     </row>
     <row r="3" spans="1:53" ht="48.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="149" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="150" t="s">
-        <v>80</v>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="126" t="s">
+        <v>78</v>
       </c>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="115"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="107"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -2139,44 +2189,44 @@
     </row>
     <row r="4" spans="1:53" ht="21" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="149" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="150" t="s">
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="115"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="107"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
@@ -2254,40 +2304,40 @@
       <c r="BA5" s="2"/>
     </row>
     <row r="6" spans="1:53" ht="20.25" customHeight="1">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -2304,40 +2354,40 @@
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:53" ht="26.25" customHeight="1">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="124"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
@@ -2354,40 +2404,40 @@
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:53" ht="51" customHeight="1">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
@@ -2417,15 +2467,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -2452,40 +2502,40 @@
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:53" ht="20.25" customHeight="1">
-      <c r="B10" s="146" t="s">
-        <v>78</v>
+      <c r="B10" s="145" t="s">
+        <v>76</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -2503,40 +2553,40 @@
     </row>
     <row r="11" spans="1:53" ht="60" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2559,40 +2609,40 @@
       <c r="BA11" s="8"/>
     </row>
     <row r="12" spans="1:53" ht="20.25" customHeight="1">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
@@ -2609,40 +2659,40 @@
       <c r="AU12" s="7"/>
     </row>
     <row r="13" spans="1:53" ht="20.25" customHeight="1">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -2672,15 +2722,15 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -2707,40 +2757,40 @@
       <c r="AU14" s="7"/>
     </row>
     <row r="15" spans="1:53" ht="24.75" customHeight="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
@@ -2758,40 +2808,40 @@
     </row>
     <row r="16" spans="1:53" ht="24.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
@@ -2814,40 +2864,40 @@
       <c r="BA16" s="2"/>
     </row>
     <row r="17" spans="1:53" ht="24.75" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
@@ -2864,38 +2914,38 @@
       <c r="AU17" s="7"/>
     </row>
     <row r="18" spans="1:53" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
@@ -2913,54 +2963,54 @@
     </row>
     <row r="19" spans="1:53" ht="10.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="140" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="127" t="s">
-        <v>81</v>
+      <c r="G19" s="140" t="s">
+        <v>79</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="104" t="s">
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="104" t="s">
-        <v>84</v>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="140" t="s">
+        <v>85</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="133" t="s">
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="143" t="s">
+      <c r="AD19" s="133"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="141" t="s">
         <v>18</v>
       </c>
       <c r="AH19" s="14"/>
@@ -2986,38 +3036,38 @@
     </row>
     <row r="20" spans="1:53" ht="10.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="144"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="158"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="136"/>
+      <c r="AG20" s="142"/>
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
@@ -3041,62 +3091,62 @@
     </row>
     <row r="21" spans="1:53" ht="34.5" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="113" t="s">
+      <c r="B21" s="151"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="113" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="115"/>
-      <c r="K21" s="113" t="s">
+      <c r="J21" s="107"/>
+      <c r="K21" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="115"/>
-      <c r="M21" s="113" t="s">
+      <c r="L21" s="107"/>
+      <c r="M21" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="114"/>
-      <c r="O21" s="102" t="s">
-        <v>85</v>
+      <c r="N21" s="106"/>
+      <c r="O21" s="101" t="s">
+        <v>83</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="102" t="s">
+      <c r="Q21" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="102" t="s">
-        <v>85</v>
+      <c r="S21" s="101" t="s">
+        <v>83</v>
       </c>
-      <c r="T21" s="102" t="s">
-        <v>86</v>
+      <c r="T21" s="101" t="s">
+        <v>84</v>
       </c>
-      <c r="U21" s="96" t="s">
-        <v>93</v>
+      <c r="U21" s="95" t="s">
+        <v>91</v>
       </c>
-      <c r="V21" s="111" t="s">
+      <c r="V21" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="112"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="132"/>
-      <c r="AG21" s="144"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="142"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
@@ -3120,11 +3170,11 @@
     </row>
     <row r="22" spans="1:53" ht="38.25" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="142"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="16" t="s">
         <v>23</v>
       </c>
@@ -3149,26 +3199,26 @@
       <c r="N22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="101" t="s">
-        <v>91</v>
+      <c r="O22" s="100" t="s">
+        <v>89</v>
       </c>
-      <c r="P22" s="101" t="s">
+      <c r="P22" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="Q22" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="R22" s="101" t="s">
+      <c r="S22" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="S22" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="101" t="s">
+      <c r="T22" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="101" t="s">
-        <v>89</v>
+      <c r="U22" s="100" t="s">
+        <v>87</v>
       </c>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -3179,11 +3229,11 @@
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="115"/>
-      <c r="AG22" s="145"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="143"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
@@ -3210,11 +3260,11 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="75">
         <v>1</v>
       </c>
@@ -3242,14 +3292,14 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="22"/>
       <c r="AB23" s="22"/>
-      <c r="AC23" s="120" t="s">
+      <c r="AC23" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="115"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="107"/>
       <c r="AG23" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AH23" s="17"/>
       <c r="AI23" s="17"/>
@@ -3277,11 +3327,11 @@
       <c r="B24" s="18">
         <v>2</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>35</v>
+      <c r="C24" s="173" t="s">
+        <v>95</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="75">
         <v>2</v>
       </c>
@@ -3309,14 +3359,14 @@
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
-      <c r="AC24" s="120" t="s">
-        <v>74</v>
+      <c r="AC24" s="105" t="s">
+        <v>72</v>
       </c>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="122"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="111"/>
       <c r="AG24" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH24" s="17"/>
       <c r="AI24" s="17"/>
@@ -3344,11 +3394,11 @@
       <c r="B25" s="18">
         <v>3</v>
       </c>
-      <c r="C25" s="117" t="s">
-        <v>36</v>
+      <c r="C25" s="116" t="s">
+        <v>35</v>
       </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="75">
         <v>3</v>
       </c>
@@ -3376,14 +3426,14 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
-      <c r="AC25" s="120" t="s">
-        <v>75</v>
+      <c r="AC25" s="105" t="s">
+        <v>73</v>
       </c>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="122"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="111"/>
       <c r="AG25" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH25" s="17"/>
       <c r="AI25" s="17"/>
@@ -3411,11 +3461,11 @@
       <c r="B26" s="18">
         <v>4</v>
       </c>
-      <c r="C26" s="117" t="s">
-        <v>37</v>
+      <c r="C26" s="116" t="s">
+        <v>36</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="75">
         <v>4</v>
       </c>
@@ -3443,14 +3493,14 @@
       <c r="Z26" s="21"/>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
-      <c r="AC26" s="120" t="s">
-        <v>76</v>
+      <c r="AC26" s="105" t="s">
+        <v>74</v>
       </c>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="121"/>
-      <c r="AF26" s="122"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="111"/>
       <c r="AG26" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH26" s="17"/>
       <c r="AI26" s="17"/>
@@ -3478,12 +3528,12 @@
       <c r="B27" s="18">
         <v>5</v>
       </c>
-      <c r="C27" s="117" t="s">
-        <v>38</v>
+      <c r="C27" s="116" t="s">
+        <v>37</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="80">
+      <c r="D27" s="113"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="79">
         <v>5</v>
       </c>
       <c r="G27" s="21"/>
@@ -3510,14 +3560,14 @@
       <c r="Z27" s="21"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="22"/>
-      <c r="AC27" s="120" t="s">
-        <v>77</v>
+      <c r="AC27" s="105" t="s">
+        <v>75</v>
       </c>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="122"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="111"/>
       <c r="AG27" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
@@ -3545,10 +3595,10 @@
       <c r="B28" s="18">
         <v>6</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="81"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -3571,12 +3621,12 @@
       <c r="Z28" s="21"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
-      <c r="AC28" s="120" t="s">
-        <v>39</v>
+      <c r="AC28" s="105" t="s">
+        <v>38</v>
       </c>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="115"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="107"/>
       <c r="AG28" s="23"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
@@ -3602,9 +3652,9 @@
     <row r="29" spans="1:53" ht="209.25" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -3628,10 +3678,10 @@
       <c r="Z29" s="21"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="115"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="107"/>
       <c r="AG29" s="23"/>
       <c r="AH29" s="17"/>
       <c r="AI29" s="17"/>
@@ -3657,9 +3707,9 @@
     <row r="30" spans="1:53" ht="262.5" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="117"/>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -3683,10 +3733,10 @@
       <c r="Z30" s="21"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="22"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="115"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="107"/>
       <c r="AG30" s="23"/>
       <c r="AH30" s="17"/>
       <c r="AI30" s="17"/>
@@ -3712,9 +3762,9 @@
     <row r="31" spans="1:53" ht="90.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -3738,10 +3788,10 @@
       <c r="Z31" s="21"/>
       <c r="AA31" s="22"/>
       <c r="AB31" s="22"/>
-      <c r="AC31" s="159"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="115"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="107"/>
       <c r="AG31" s="23"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
@@ -3767,9 +3817,9 @@
     <row r="32" spans="1:53" ht="90.75" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -3793,10 +3843,10 @@
       <c r="Z32" s="21"/>
       <c r="AA32" s="22"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="159"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="115"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="106"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="107"/>
       <c r="AG32" s="23"/>
       <c r="AH32" s="17"/>
       <c r="AI32" s="17"/>
@@ -3834,24 +3884,24 @@
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
       <c r="X33" s="29"/>
       <c r="Y33" s="29"/>
       <c r="Z33" s="29"/>
       <c r="AA33" s="29"/>
       <c r="AB33" s="29"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="124"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="104"/>
       <c r="AG33" s="30"/>
     </row>
     <row r="34" spans="1:34" ht="12.75" customHeight="1">
@@ -3883,31 +3933,31 @@
       <c r="Z34" s="29"/>
       <c r="AA34" s="29"/>
       <c r="AB34" s="29"/>
-      <c r="AC34" s="163"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="104"/>
       <c r="AG34" s="30"/>
     </row>
     <row r="35" spans="1:34" ht="19.5" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="33"/>
       <c r="C35" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="37"/>
       <c r="J35" s="17"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
-      <c r="AC35" s="162"/>
-      <c r="AD35" s="124"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="124"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
+      <c r="AF35" s="104"/>
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:34" ht="18.75" customHeight="1">
@@ -3979,7 +4029,7 @@
       <c r="E38" s="42"/>
       <c r="F38" s="46"/>
       <c r="G38" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="40"/>
@@ -4035,39 +4085,39 @@
     <row r="40" spans="1:34" ht="39.75" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="160" t="s">
-        <v>43</v>
+      <c r="C40" s="120" t="s">
+        <v>42</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="161"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="121"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" thickBot="1">
       <c r="A41" s="26"/>
@@ -4156,30 +4206,30 @@
       <c r="C46" s="53"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1">
-      <c r="B47" s="155" t="s">
-        <v>44</v>
+      <c r="B47" s="112" t="s">
+        <v>43</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
       <c r="J47" s="17"/>
       <c r="K47" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="56"/>
       <c r="M47" s="57"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1">
       <c r="F49" s="58"/>
@@ -4188,30 +4238,30 @@
     <row r="50" spans="1:26" ht="15" customHeight="1">
       <c r="B50" s="1"/>
       <c r="C50" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
       <c r="J50" s="60"/>
       <c r="K50" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="156"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="156"/>
-      <c r="W50" s="156"/>
-      <c r="X50" s="131"/>
-      <c r="Y50" s="131"/>
-      <c r="Z50" s="131"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="115"/>
+      <c r="Y50" s="115"/>
+      <c r="Z50" s="115"/>
     </row>
     <row r="51" spans="1:26" ht="12" customHeight="1">
       <c r="F51" s="58"/>
@@ -37292,13 +37342,48 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="B13:AG13"/>
+    <mergeCell ref="B15:AG15"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="B17:AG17"/>
+    <mergeCell ref="G19:N20"/>
+    <mergeCell ref="AC19:AF21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="X19:AB20"/>
+    <mergeCell ref="AG19:AG22"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B10:AG10"/>
+    <mergeCell ref="B11:AG11"/>
+    <mergeCell ref="B12:AG12"/>
+    <mergeCell ref="O19:R20"/>
+    <mergeCell ref="S19:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AC25:AF25"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="F50:H50"/>
@@ -37315,48 +37400,13 @@
     <mergeCell ref="AC26:AF26"/>
     <mergeCell ref="AC27:AF27"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="X19:AB20"/>
-    <mergeCell ref="AG19:AG22"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B10:AG10"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="B12:AG12"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B15:AG15"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="B17:AG17"/>
-    <mergeCell ref="G19:N20"/>
-    <mergeCell ref="AC19:AF21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="O19:R20"/>
-    <mergeCell ref="S19:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC29:AF29"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:G50">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
@@ -37386,7 +37436,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -37398,66 +37448,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="164" t="s">
-        <v>48</v>
+      <c r="A2" s="163" t="s">
+        <v>47</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="165"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="164"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="161"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="161"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="161"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="161"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="169"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="168"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="61"/>
@@ -37484,32 +37534,32 @@
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="63">
         <v>1</v>
       </c>
       <c r="F10" s="61"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="171"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="170"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="64">
         <v>45644</v>
       </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -37530,127 +37580,127 @@
       <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="C14" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="D14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="E14" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="F14" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="G14" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="H14" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="122.25" customHeight="1">
+      <c r="A15" s="171" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="122.25" customHeight="1">
-      <c r="A15" s="172" t="s">
-        <v>58</v>
       </c>
       <c r="B15" s="73">
         <v>45644</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>60</v>
+      <c r="D15" s="96" t="s">
+        <v>92</v>
       </c>
-      <c r="E15" s="98" t="s">
-        <v>70</v>
+      <c r="E15" s="97" t="s">
+        <v>68</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
-      <c r="G15" s="82" t="s">
-        <v>69</v>
+      <c r="G15" s="81" t="s">
+        <v>67</v>
       </c>
-      <c r="H15" s="77" t="s">
-        <v>61</v>
+      <c r="H15" s="176" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="144.6" customHeight="1">
-      <c r="A16" s="173"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="73">
         <v>45644</v>
       </c>
       <c r="C16" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="E16" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="17" spans="1:8" ht="144.6" customHeight="1">
-      <c r="A17" s="173"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="73">
         <v>45644</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="100" t="s">
-        <v>60</v>
+      <c r="E17" s="97" t="s">
+        <v>70</v>
       </c>
-      <c r="E17" s="98" t="s">
-        <v>72</v>
+      <c r="F17" s="83" t="s">
+        <v>65</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="G17" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="85" t="s">
-        <v>69</v>
+      <c r="H17" s="85" t="s">
+        <v>62</v>
       </c>
-      <c r="H17" s="86" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="144.6" customHeight="1">
-      <c r="A18" s="90"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="73">
         <v>45644</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>73</v>
+      <c r="E18" s="97" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>64</v>
+      <c r="H18" s="78" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -37661,18 +37711,11 @@
     <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c21ef800502b5dc1190a9a0361733939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30daf50bb6192471b76b9808b4256f50" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -37867,6 +37910,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37877,23 +37928,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01A9D5D-1824-48C2-8527-9D8749A8DDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37912,6 +37946,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0679DBA9-5627-44A3-91B7-DABD2A2D7C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96490F3C-DFF7-4107-BF06-5DD550949EBD}">
   <ds:schemaRefs>
